--- a/src/test/resorce/forresister1.xlsx
+++ b/src/test/resorce/forresister1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6514F9-75CB-4C72-B0F1-C6D0A48201E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBC849-27CA-4C8C-BC49-BFC457B09B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="2052" windowWidth="14232" windowHeight="12360" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="1764" yWindow="1728" windowWidth="14232" windowHeight="12360" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022-06-27 9:00:00.000000</t>
+    <t>2022-06-28 9:00:00.000000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/src/test/resorce/forresister1.xlsx
+++ b/src/test/resorce/forresister1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBC849-27CA-4C8C-BC49-BFC457B09B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4564F57-1C89-4D40-AB51-CCF239D76651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="1728" windowWidth="14232" windowHeight="12360" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2022-06-28 9:00:00.000000</t>
+    <t>2022-06-29 9:00:00.000000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
